--- a/teaching/traditional_assets/database/data/romania/romania_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_chemical_specialty.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.03759999999999999</v>
+        <v>-0.0582</v>
       </c>
       <c r="G2">
-        <v>-0.1402417962003454</v>
+        <v>-0.1265350877192983</v>
       </c>
       <c r="H2">
-        <v>-0.1402417962003454</v>
+        <v>-0.1265350877192983</v>
       </c>
       <c r="I2">
-        <v>-0.303972366148532</v>
+        <v>-0.3793859649122807</v>
       </c>
       <c r="J2">
-        <v>-0.303972366148532</v>
+        <v>-0.3793859649122807</v>
       </c>
       <c r="K2">
-        <v>-1.25</v>
+        <v>-1.57</v>
       </c>
       <c r="L2">
-        <v>-0.2158894645941278</v>
+        <v>-0.3442982456140351</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="V2">
-        <v>0.003023758099352052</v>
+        <v>0.002716049382716049</v>
       </c>
       <c r="W2">
-        <v>-0.1136363636363636</v>
+        <v>-0.1880239520958084</v>
       </c>
       <c r="X2">
-        <v>0.1141601443446119</v>
+        <v>0.09802955230621008</v>
       </c>
       <c r="Y2">
-        <v>-0.2277965079809755</v>
+        <v>-0.2860535044020185</v>
       </c>
       <c r="Z2">
-        <v>0.4785519464418547</v>
+        <v>0.4534606205250596</v>
       </c>
       <c r="AA2">
-        <v>-0.1454665674849161</v>
+        <v>-0.1720365950676213</v>
       </c>
       <c r="AB2">
-        <v>0.09384185392461648</v>
+        <v>0.08031034660618078</v>
       </c>
       <c r="AC2">
-        <v>-0.2393084214095326</v>
+        <v>-0.2523469416738021</v>
       </c>
       <c r="AD2">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AG2">
-        <v>1.706</v>
+        <v>1.489</v>
       </c>
       <c r="AH2">
-        <v>0.2708661417322835</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AI2">
-        <v>0.1708043694141013</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="AJ2">
-        <v>0.2692550505050505</v>
+        <v>0.2688210868387796</v>
       </c>
       <c r="AK2">
-        <v>0.1696499602227526</v>
+        <v>0.1694163158493572</v>
       </c>
       <c r="AL2">
-        <v>0.07000000000000001</v>
+        <v>0.043</v>
       </c>
       <c r="AM2">
-        <v>0.07000000000000001</v>
+        <v>0.043</v>
       </c>
       <c r="AN2">
-        <v>-1.409836065573771</v>
+        <v>-1.209677419354839</v>
       </c>
       <c r="AO2">
-        <v>-25.14285714285714</v>
+        <v>-40.23255813953489</v>
       </c>
       <c r="AP2">
-        <v>-1.398360655737705</v>
+        <v>-1.200806451612903</v>
       </c>
       <c r="AQ2">
-        <v>-25.14285714285714</v>
+        <v>-40.23255813953489</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.03759999999999999</v>
+        <v>-0.0582</v>
       </c>
       <c r="G3">
-        <v>-0.1402417962003454</v>
+        <v>-0.1265350877192983</v>
       </c>
       <c r="H3">
-        <v>-0.1402417962003454</v>
+        <v>-0.1265350877192983</v>
       </c>
       <c r="I3">
-        <v>-0.303972366148532</v>
+        <v>-0.3793859649122807</v>
       </c>
       <c r="J3">
-        <v>-0.303972366148532</v>
+        <v>-0.3793859649122807</v>
       </c>
       <c r="K3">
-        <v>-1.25</v>
+        <v>-1.57</v>
       </c>
       <c r="L3">
-        <v>-0.2158894645941278</v>
+        <v>-0.3442982456140351</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="V3">
-        <v>0.003023758099352052</v>
+        <v>0.002716049382716049</v>
       </c>
       <c r="W3">
-        <v>-0.1136363636363636</v>
+        <v>-0.1880239520958084</v>
       </c>
       <c r="X3">
-        <v>0.1141601443446119</v>
+        <v>0.09802955230621008</v>
       </c>
       <c r="Y3">
-        <v>-0.2277965079809755</v>
+        <v>-0.2860535044020185</v>
       </c>
       <c r="Z3">
-        <v>0.4785519464418547</v>
+        <v>0.4534606205250596</v>
       </c>
       <c r="AA3">
-        <v>-0.1454665674849161</v>
+        <v>-0.1720365950676213</v>
       </c>
       <c r="AB3">
-        <v>0.09384185392461648</v>
+        <v>0.08031034660618078</v>
       </c>
       <c r="AC3">
-        <v>-0.2393084214095326</v>
+        <v>-0.2523469416738021</v>
       </c>
       <c r="AD3">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AG3">
-        <v>1.706</v>
+        <v>1.489</v>
       </c>
       <c r="AH3">
-        <v>0.2708661417322835</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="AI3">
-        <v>0.1708043694141013</v>
+        <v>0.1704545454545454</v>
       </c>
       <c r="AJ3">
-        <v>0.2692550505050505</v>
+        <v>0.2688210868387796</v>
       </c>
       <c r="AK3">
-        <v>0.1696499602227526</v>
+        <v>0.1694163158493572</v>
       </c>
       <c r="AL3">
-        <v>0.07000000000000001</v>
+        <v>0.043</v>
       </c>
       <c r="AM3">
-        <v>0.07000000000000001</v>
+        <v>0.043</v>
       </c>
       <c r="AN3">
-        <v>-1.409836065573771</v>
+        <v>-1.209677419354839</v>
       </c>
       <c r="AO3">
-        <v>-25.14285714285714</v>
+        <v>-40.23255813953489</v>
       </c>
       <c r="AP3">
-        <v>-1.398360655737705</v>
+        <v>-1.200806451612903</v>
       </c>
       <c r="AQ3">
-        <v>-25.14285714285714</v>
+        <v>-40.23255813953489</v>
       </c>
     </row>
   </sheetData>
